--- a/Azure/Clouds 2.7.xlsx
+++ b/Azure/Clouds 2.7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
   <si>
     <t>IT Tower</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Microsoft.Batch</t>
   </si>
   <si>
-    <t>Virtual Machine Licensing</t>
-  </si>
-  <si>
     <t>OS License</t>
   </si>
   <si>
@@ -295,18 +292,24 @@
     <t>Virtual Machines Licenses</t>
   </si>
   <si>
+    <t>Red Hat</t>
+  </si>
+  <si>
+    <t>Compute Consumption</t>
+  </si>
+  <si>
+    <t>Red Hat Enterprise Linux%</t>
+  </si>
+  <si>
     <t>Compute Hours</t>
   </si>
   <si>
-    <t>Compute Consumption</t>
-  </si>
-  <si>
-    <t>Red Hat Enterprise Linux%</t>
-  </si>
-  <si>
     <t>%Compute</t>
   </si>
   <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
     <t>SQL Server%</t>
   </si>
   <si>
@@ -316,7 +319,7 @@
     <t>BizTalk Server Standard%</t>
   </si>
   <si>
-    <t>Development Environment</t>
+    <t>Java Development</t>
   </si>
   <si>
     <t>Java Development Environment%</t>
@@ -325,7 +328,7 @@
     <t>Unassigned</t>
   </si>
   <si>
-    <t>Reserved Capacity</t>
+    <t>Reservation</t>
   </si>
   <si>
     <t>Reservation%</t>
@@ -1216,10 +1219,10 @@
       <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1239,10 +1242,10 @@
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1260,19 +1263,19 @@
         <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1280,25 +1283,25 @@
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>97</v>
@@ -1309,25 +1312,25 @@
         <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1335,25 +1338,25 @@
         <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>97</v>
@@ -1364,25 +1367,25 @@
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>97</v>
@@ -1393,28 +1396,28 @@
         <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1422,25 +1425,25 @@
         <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>97</v>
@@ -1448,106 +1451,106 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1555,28 +1558,28 @@
         <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1584,210 +1587,210 @@
         <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="H32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1"/>
